--- a/Piano di Progetto/Preventivo/Prototipazione.Economico.xlsx
+++ b/Piano di Progetto/Preventivo/Prototipazione.Economico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0488151-0856-47A8-919D-94901915E785}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5554FB2B-4585-43B9-803D-482FA1D0112E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
@@ -252,6 +252,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3854-4C04-8B91-6D4DB762C700}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -269,6 +274,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3854-4C04-8B91-6D4DB762C700}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -286,6 +296,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3854-4C04-8B91-6D4DB762C700}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -303,6 +318,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3854-4C04-8B91-6D4DB762C700}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -320,6 +340,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3854-4C04-8B91-6D4DB762C700}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -337,6 +362,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3854-4C04-8B91-6D4DB762C700}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -425,10 +455,10 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>225</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>675</c:v>
+                  <c:v>525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1033,15 +1063,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>294084</xdr:colOff>
+      <xdr:colOff>141684</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>155972</xdr:rowOff>
+      <xdr:rowOff>70247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>164306</xdr:rowOff>
+      <xdr:rowOff>78581</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1369,7 +1399,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" activeCellId="11" sqref="A2 A3 A4 A5 A6 A7 C7 C6 C5 C4 C3 C2"/>
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,11 +1471,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <f>15*B6</f>
-        <v>225</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1453,11 +1483,11 @@
         <v>8</v>
       </c>
       <c r="B7" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C7" s="9">
         <f>15*B7</f>
-        <v>675</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
@@ -1466,11 +1496,11 @@
       </c>
       <c r="B8" s="11">
         <f>SUM(B2:B7)</f>
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C8" s="11">
         <f>SUM(C2:C7)</f>
-        <v>3510</v>
+        <v>3435</v>
       </c>
     </row>
   </sheetData>

--- a/Piano di Progetto/Preventivo/Prototipazione.Economico.xlsx
+++ b/Piano di Progetto/Preventivo/Prototipazione.Economico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5554FB2B-4585-43B9-803D-482FA1D0112E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6BF793-1A84-4EC6-A996-28BE1368F660}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
@@ -154,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,6 +191,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,7 +454,7 @@
                 <c:pt idx="1">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="#,##0">
                   <c:v>1760</c:v>
                 </c:pt>
                 <c:pt idx="3">
@@ -1449,8 +1455,7 @@
       <c r="B4" s="1">
         <v>80</v>
       </c>
-      <c r="C4" s="1">
-        <f>22*B4</f>
+      <c r="C4" s="13">
         <v>1760</v>
       </c>
     </row>
@@ -1498,17 +1503,13 @@
         <f>SUM(B2:B7)</f>
         <v>170</v>
       </c>
-      <c r="C8" s="11">
-        <f>SUM(C2:C7)</f>
+      <c r="C8" s="14">
         <v>3435</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C4" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Piano di Progetto/Preventivo/Prototipazione.Economico.xlsx
+++ b/Piano di Progetto/Preventivo/Prototipazione.Economico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6BF793-1A84-4EC6-A996-28BE1368F660}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DBE9DD-EA57-44F9-AB90-9C6F74859CE4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
@@ -383,13 +383,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -526,7 +524,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -1405,7 +1403,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="C8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,6 +1454,7 @@
         <v>80</v>
       </c>
       <c r="C4" s="13">
+        <f>22*B4</f>
         <v>1760</v>
       </c>
     </row>
@@ -1504,6 +1503,7 @@
         <v>170</v>
       </c>
       <c r="C8" s="14">
+        <f>SUM(C2:C7)</f>
         <v>3435</v>
       </c>
     </row>
